--- a/02.crawler/10.Amazon/3.part.xlsx
+++ b/02.crawler/10.Amazon/3.part.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"0": {"Brand": "A-Premium"}, "1": {"Voltage": "12 Volts"}, "2": {"Material": "Metal,Plastic"}, "3": {"Item Weight": "1.54 Pounds"}, "4": {"Manufacturer": "PremiumpartsWhosale"}}</t>
+          <t>{"0": {"Brand": "A-Premium"}, "1": {"Voltage": "12 Volts"}, "2": {"Material": "Metal,Plastic"}, "3": {"Item Weight": "1.5 Pounds"}, "4": {"Manufacturer": "PremiumpartsWhosale"}}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B08W9MX59Y"}, "1": {"Customer Reviews": {"0": "3.8 out of 5 stars", "1": "21 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#229,305 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#9 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "February 8, 2021"}}</t>
+          <t>{"0": {"ASIN": "B08W9MX59Y"}, "1": {"Customer Reviews": {"0": "3.8 out of 5 stars", "1": "21 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#232,579 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#7 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "February 8, 2021"}}</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#253,817 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#12 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "2 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#282,611 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#10 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "2 ratings"}}}</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{"0": {"Brand": "Ford"}, "1": {"Item Weight": "1.2 Pounds"}, "2": {"Manufacturer": "Ford"}}</t>
+          <t>{"0": {"Brand": "Ford"}, "1": {"Item Weight": "1.19 Pounds"}, "2": {"Manufacturer": "Ford"}}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B00OU7PZCM"}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "4 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#308,264 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#15 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "June 5, 2014"}}</t>
+          <t>{"0": {"ASIN": "B00OU7PZCM"}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "4 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#347,131 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#15 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "June 5, 2014"}}</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B01KHL31PW"}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "2 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#345,066 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#18 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "August 16, 2016"}}</t>
+          <t>{"0": {"ASIN": "B01KHL31PW"}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "2 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#367,886 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#16 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "August 16, 2016"}}</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B097JWWR4V"}, "1": {"Customer Reviews": {"0": "4.8 out of 5 stars", "1": "14 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#403,274 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#22 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "June 4, 2021"}}</t>
+          <t>{"0": {"ASIN": "B097JWWR4V"}, "1": {"Customer Reviews": {"0": "4.8 out of 5 stars", "1": "14 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#426,730 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#21 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "June 4, 2021"}}</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#453,762 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#26 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "3 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#473,617 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#24 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "3 ratings"}}}</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B0BYXR6L1R"}, "1": {"Best Sellers Rank": {"0": {"#682,924 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#36 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "September 8, 2023"}}</t>
+          <t>{"0": {"ASIN": "B0BYXR6L1R"}, "1": {"Best Sellers Rank": {"0": {"#702,598 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#35 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "September 8, 2023"}}</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B01E6G23MG"}, "1": {"Customer Reviews": {"0": "4.1 out of 5 stars", "1": "2 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#828,489 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#40 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "April 12, 2016"}}</t>
+          <t>{"0": {"ASIN": "B01E6G23MG"}, "1": {"Customer Reviews": {"0": "4.1 out of 5 stars", "1": "2 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#847,155 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#40 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "April 12, 2016"}}</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$58.47</t>
+          <t>$57.12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{"0": {"Manufacturer": "Motorcraft"}, "1": {"Brand": "Motorcraft"}, "2": {"Model": "Motor"}, "3": {"Item Weight": "4.2 ounces"}, "4": {"Country of Origin": "USA"}, "5": {"Item model number": "YH529"}, "6": {"Exterior": "Painted"}, "7": {"Manufacturer Part Number": "YH529"}}</t>
+          <t>{"0": {"Manufacturer": "Motorcraft"}, "1": {"Brand": "Motorcraft"}, "2": {"Model": "Motor"}, "3": {"Item Weight": "4.2 ounces"}, "4": {"Item model number": "YH529"}, "5": {"Exterior": "Painted"}, "6": {"Manufacturer Part Number": "YH529"}}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B000C5C4GG"}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "3 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#833,781 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#41 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "December 5, 2006"}}</t>
+          <t>{"0": {"ASIN": "B000C5C4GG"}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "3 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#844,303 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#39 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "December 5, 2006"}}</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B0D2V9CFXN"}, "1": {"Best Sellers Rank": {"0": {"#1,035,406 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#51 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}, "2": {"#104,953 in Automotive Body Parts": "https://www.amazon.com/gp/bestsellers/automotive/15709241/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "April 27, 2024"}}</t>
+          <t>{"0": {"ASIN": "B0D2V9CFXN"}, "1": {"Best Sellers Rank": {"0": {"#1,055,088 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#50 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}, "2": {"#107,107 in Automotive Body Parts": "https://www.amazon.com/gp/bestsellers/automotive/15709241/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "April 27, 2024"}}</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,077,689 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#52 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "3.8 out of 5 stars", "1": "6 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,078,652 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#51 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "3.8 out of 5 stars", "1": "6 ratings"}}}</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,115,997 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#53 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,133,656 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#53 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,180,020 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#55 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}, "2": {"#121,253 in Automotive Body Parts": "https://www.amazon.com/gp/bestsellers/automotive/15709241/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,186,995 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#55 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}, "2": {"#122,011 in Automotive Body Parts": "https://www.amazon.com/gp/bestsellers/automotive/15709241/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B09P54QWQ8"}, "1": {"Customer Reviews": {"0": "3.3 out of 5 stars", "1": "4 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,184,259 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#56 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "November 15, 2021"}}</t>
+          <t>{"0": {"ASIN": "B09P54QWQ8"}, "1": {"Customer Reviews": {"0": "3.3 out of 5 stars", "1": "4 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,187,688 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#56 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "November 15, 2021"}}</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,212,928 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#57 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,211,435 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#57 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,241,900 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#58 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,258,046 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#58 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B01G48AJ4S"}, "1": {"Customer Reviews": {"0": "4.9 out of 5 stars", "1": "24 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,319,354 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#62 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "May 24, 2016"}}</t>
+          <t>{"0": {"ASIN": "B01G48AJ4S"}, "1": {"Customer Reviews": {"0": "4.9 out of 5 stars", "1": "24 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,320,116 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#61 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "May 24, 2016"}}</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B08NVLBNK8"}, "1": {"Customer Reviews": {"0": "3.7 out of 5 stars", "1": "46 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,328,829 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#63 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "November 19, 2020"}}</t>
+          <t>{"0": {"ASIN": "B08NVLBNK8"}, "1": {"Customer Reviews": {"0": "3.7 out of 5 stars", "1": "46 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,327,436 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#63 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "November 19, 2020"}}</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B09PH13WTM"}, "1": {"Customer Reviews": {"0": "3.3 out of 5 stars", "1": "5 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,381,111 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#64 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "November 15, 2021"}}</t>
+          <t>{"0": {"ASIN": "B09PH13WTM"}, "1": {"Customer Reviews": {"0": "3.3 out of 5 stars", "1": "5 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,384,272 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#64 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "November 15, 2021"}}</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B0BWJNZCMZ"}, "1": {"Customer Reviews": {"0": "2.6 out of 5 stars", "1": "7 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,462,727 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#68 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "February 22, 2023"}}</t>
+          <t>{"0": {"ASIN": "B0BWJNZCMZ"}, "1": {"Customer Reviews": {"0": "2.6 out of 5 stars", "1": "7 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#1,462,516 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#68 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "February 22, 2023"}}</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,521,083 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#70 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "2.9 out of 5 stars", "1": "17 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,520,707 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#70 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "2.9 out of 5 stars", "1": "17 ratings"}}}</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B09Y61GJD1"}, "1": {"Best Sellers Rank": {"0": {"#1,549,816 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#72 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "April 18, 2022"}}</t>
+          <t>{"0": {"ASIN": "B09Y61GJD1"}, "1": {"Best Sellers Rank": {"0": {"#1,553,109 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#72 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "April 18, 2022"}}</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,751,724 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#78 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "3.3 out of 5 stars", "1": "14 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,750,843 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#78 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "3.3 out of 5 stars", "1": "14 ratings"}}}</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$62.99</t>
+          <t>$116.99</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,862,407 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#81 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,869,747 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#81 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B07FZ7ZHXR"}, "1": {"Best Sellers Rank": {"0": {"#1,865,045 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#82 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}, "2": {"#200,816 in Automotive Body Parts": "https://www.amazon.com/gp/bestsellers/automotive/15709241/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "July 27, 2018"}}</t>
+          <t>{"0": {"ASIN": "B07FZ7ZHXR"}, "1": {"Best Sellers Rank": {"0": {"#1,872,508 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#82 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}, "2": {"#201,690 in Automotive Body Parts": "https://www.amazon.com/gp/bestsellers/automotive/15709241/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "July 27, 2018"}}</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,878,531 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#83 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,885,305 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#85 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B0BH4ZXNKP"}, "1": {"Best Sellers Rank": {"0": {"#1,879,336 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#84 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "October 3, 2022"}}</t>
+          <t>{"0": {"ASIN": "B0BH4ZXNKP"}, "1": {"Best Sellers Rank": {"0": {"#1,883,582 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#83 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "October 3, 2022"}}</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#1,980,520 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#87 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "1 rating"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#1,980,276 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#87 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "5.0 out of 5 stars", "1": "1 rating"}}}</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#2,037,927 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#88 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "2.0 out of 5 stars", "1": "1 rating"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#2,040,965 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#88 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "2.0 out of 5 stars", "1": "1 rating"}}}</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B07PGLCTJ6"}, "1": {"Best Sellers Rank": {"0": {"#2,066,000 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#90 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "June 17, 2016"}}</t>
+          <t>{"0": {"ASIN": "B07PGLCTJ6"}, "1": {"Best Sellers Rank": {"0": {"#2,073,270 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#90 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "2": {"Date First Available": "June 17, 2016"}}</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>{"0": {"Brand": "Motorcraft"}, "1": {"Model Name": "Motor"}, "2": {"Item Weight": "8 ounces"}, "3": {"Manufacturer": "Motorcraft"}}</t>
+          <t>{"0": {"Brand": "Motorcraft"}, "1": {"Model Name": "Motor"}, "2": {"Item Weight": "0.5 Pounds"}, "3": {"Manufacturer": "Motorcraft"}}</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$62.99</t>
+          <t>$116.99</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{"0": {"ASIN": "B095C2ZSK1"}, "1": {"Customer Reviews": {"0": "3.5 out of 5 stars", "1": "4 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#2,076,531 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#93 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "May 19, 2021"}}</t>
+          <t>{"0": {"ASIN": "B095C2ZSK1"}, "1": {"Customer Reviews": {"0": "3.5 out of 5 stars", "1": "4 ratings"}}, "2": {"Best Sellers Rank": {"0": {"#2,076,233 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#92 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "3": {"Date First Available": "May 19, 2021"}}</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#2,106,083 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#94 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#2,107,695 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#94 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}}</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$62.99</t>
+          <t>$116.99</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#2,201,669 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#98 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "3.2 out of 5 stars", "1": "4 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#2,201,346 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#98 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "3.2 out of 5 stars", "1": "4 ratings"}}}</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$62.99</t>
+          <t>$116.99</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>{"0": {"Best Sellers Rank": {"0": {"#2,281,499 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#100 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "2.6 out of 5 stars", "1": "5 ratings"}}}</t>
+          <t>{"0": {"Best Sellers Rank": {"0": {"#2,281,828 in Automotive": "https://www.amazon.com/gp/bestsellers/automotive/ref=pd_zg_ts_automotive"}, "1": {"#100 in Automotive Replacement Sun Roof Motors": "https://www.amazon.com/gp/bestsellers/automotive/15730511/ref=pd_zg_hrsr_automotive"}}}, "1": {"Customer Reviews": {"0": "2.6 out of 5 stars", "1": "5 ratings"}}}</t>
         </is>
       </c>
     </row>
